--- a/archivos/archivo_tradeview_1.xlsx
+++ b/archivos/archivo_tradeview_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84f1aedc942e402d/Documentos/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sally\Downloads\LAB_2_JFME-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55043317-14D3-43C9-88F0-43B8AE1B5AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5959D808-1B92-40BB-A330-B741C98743B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43A1268E-D998-4EED-B449-93D84121C54D}"/>
   </bookViews>

--- a/archivos/archivo_tradeview_1.xlsx
+++ b/archivos/archivo_tradeview_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sally\Downloads\Fer_Pinedo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84f1aedc942e402d/Documentos/GitHub/LAB_02_KVGH/archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF84E5EF-6150-4446-882B-83E48743BFDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{34E69F85-45EF-4E0F-8B34-F309FB8F46A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8471871E-DC22-445F-9FB8-B218428156E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43A1268E-D998-4EED-B449-93D84121C54D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Type</t>
   </si>
@@ -198,6 +198,33 @@
   </si>
   <si>
     <t>OpenTime</t>
+  </si>
+  <si>
+    <t>usdmxn</t>
+  </si>
+  <si>
+    <t>2020.02.14 13:17:38</t>
+  </si>
+  <si>
+    <t>2020.02.18 19:04:58</t>
+  </si>
+  <si>
+    <t>2020.02.17 15:08:36</t>
+  </si>
+  <si>
+    <t>2020.02.18 22:16:48</t>
+  </si>
+  <si>
+    <t>2020.02.18 02:11:47</t>
+  </si>
+  <si>
+    <t>2020.02.19 05:28:51</t>
+  </si>
+  <si>
+    <t>2020.02.18 09:14:03</t>
+  </si>
+  <si>
+    <t>2020.02.16 05:52:15</t>
   </si>
 </sst>
 </file>
@@ -208,10 +235,22 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -265,18 +304,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -295,14 +341,393 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -313,6 +738,47 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65D8C52C-919E-49AD-BB94-6A88500F0866}" name="Tabla1" displayName="Tabla1" ref="A1:N21" totalsRowShown="0" tableBorderDxfId="14">
+  <autoFilter ref="A1:N21" xr:uid="{35DA55E1-8D49-40FB-AE61-895251EBEA7C}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+    <sortCondition ref="B1:B21"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{E87BEF78-D765-4B7D-98BD-C60565AB770A}" name="Order" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{771FBA5F-FEF6-4011-95F0-11426716CF45}" name="OpenTime" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{0D7BB641-848E-4490-A442-46EE4C2A8F96}" name="Type" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8E21A90C-7D40-426A-8867-6D789FCCBFDC}" name="Size" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E1719CFF-3B16-451B-92FB-58A48975AC5F}" name="Symbol" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{9A4EAFA5-01F9-47FD-B17E-8EA04E788992}" name="OpenPrice" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{ED19ED76-C319-42A1-B5B3-EFE4414EEF01}" name="S/L" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{237EC794-423E-4634-B45A-CCA9AC12F9DA}" name="T/P" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{CDB20C9E-40DD-4B67-A0C1-F68F70768F98}" name="CloseTime" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{0702D305-3B91-4FB5-9409-A6C6A5D61971}" name="ClosePrice" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{023AA3FC-E1C2-4809-8B31-17DF6DDE1D2A}" name="Commission" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{5D20C162-9E73-4119-B8C5-8FFF5529CCBA}" name="Taxes" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{D83CB9C6-85FA-4D78-8438-2F9B2A925FD3}" name="Swap" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{620D37BA-8DCC-43E0-BEB7-6F9AE5B74821}" name="Profit" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,767 +1078,951 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36EE18-E6C0-45E4-85A6-9D16FB732928}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>233141473</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>0.1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>1.09155</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>1.08856</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>1.09406</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>1.08856</v>
       </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
         <v>-29.9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>233141532</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.05</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>109.852</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>109.652</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>110.102</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>110.105</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
         <v>11.49</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>233141811</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>0.05</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>6.8471500000000001</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>6.8429500000000001</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>6.8511499999999996</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>6.8490500000000001</v>
       </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <v>1.39</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>233156163</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.05</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>6.8471500000000001</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>6.8429500000000001</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>6.8511499999999996</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>6.8511499999999996</v>
       </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <v>2.92</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>233259147</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>6.8436000000000003</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>6.8407999999999998</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>6.8463000000000003</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>6.8463000000000003</v>
       </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
         <v>3.94</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>233259272</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>0.05</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>1.3867499999999999</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>1.3892500000000001</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>1.38811</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>233311884</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>119.65600000000001</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>118.892</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>119.76</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>118.892</v>
       </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>-139.28</v>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-89.28</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>233357971</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.25</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>109.877</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <v>109.97799999999999</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>109.98</v>
       </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>23.41</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>233404066</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.15</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>6.9843400000000004</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>6.9854500000000002</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>6.9854599999999998</v>
       </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>2.41</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>233405494</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>0.17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>1.3254600000000001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>1.32386</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>1.3269599999999999</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>1.32386</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
         <v>-21.15</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>233406083</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>0.2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>109.764</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>109.56399999999999</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>109.964</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>109.964</v>
       </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>36.369999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>233406889</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>0.1</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>1.08524</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>1.08724</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>1.08324</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="13">
         <v>1.08324</v>
       </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>233701108</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="7">
+        <v>233507439</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="8">
-        <v>110.044</v>
-      </c>
-      <c r="G14" s="8">
-        <v>109.78400000000001</v>
-      </c>
-      <c r="H14" s="8">
-        <v>110.294</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="8">
-        <v>110.295</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>34.130000000000003</v>
+      <c r="D14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="4">
+        <v>19.333600000000001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="4">
+        <v>19.2561</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-38.65</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>233814763</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="A15" s="7">
+        <v>233617891</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.1</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.66191999999999995</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.66712000000000005</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.65691999999999995</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.66222000000000003</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>-3</v>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.1292599999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1.1323799999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3.19</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>233815022</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1.07911</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1.0841099999999999</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1.07161</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1.0811500000000001</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <v>-5.0999999999999996</v>
+      <c r="A16" s="7">
+        <v>233581535</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4">
+        <v>110.46599999999999</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="4">
+        <v>110.563</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>21.63</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
+        <v>233661874</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1.32528</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1.3258799999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>233701108</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="6">
+        <v>110.044</v>
+      </c>
+      <c r="G18" s="6">
+        <v>109.78400000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <v>110.294</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="6">
+        <v>110.295</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>34.130000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>233814763</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.66191999999999995</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.66712000000000005</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.65691999999999995</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.66222000000000003</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>233815022</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.07911</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.0841099999999999</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.07161</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1.0811500000000001</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>233869775</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D21" s="3">
         <v>0.1</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F21" s="4">
         <v>0.66164999999999996</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G21" s="4">
         <v>0.65795000000000003</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H21" s="4">
         <v>0.66515000000000002</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J21" s="4">
         <v>0.65793999999999997</v>
       </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-37.1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/archivos/archivo_tradeview_1.xlsx
+++ b/archivos/archivo_tradeview_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84f1aedc942e402d/Documentos/GitHub/LAB_02_KVGH/archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{34E69F85-45EF-4E0F-8B34-F309FB8F46A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8471871E-DC22-445F-9FB8-B218428156E4}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{34E69F85-45EF-4E0F-8B34-F309FB8F46A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D52BBEA-1405-4C56-8630-F0F776AEBFE1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43A1268E-D998-4EED-B449-93D84121C54D}"/>
   </bookViews>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36EE18-E6C0-45E4-85A6-9D16FB732928}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1674,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3">
         <v>0.18</v>
@@ -1683,7 +1683,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="4">
-        <v>19.333600000000001</v>
+        <v>18.555420000000002</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>57</v>
       </c>
       <c r="J14" s="4">
-        <v>19.2561</v>
+        <v>18.589040000000001</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3">
         <v>0.1</v>
@@ -1727,7 +1727,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="4">
-        <v>1.1292599999999999</v>
+        <v>1.0842000000000001</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>62</v>
       </c>
       <c r="J15" s="14">
-        <v>1.1323799999999999</v>
+        <v>1.0791599999999999</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3">
         <v>0.15</v>
@@ -1770,8 +1770,8 @@
       <c r="E16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="4">
-        <v>110.46599999999999</v>
+      <c r="F16" s="6">
+        <v>109.937</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -1782,8 +1782,8 @@
       <c r="I16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="4">
-        <v>110.563</v>
+      <c r="J16" s="6">
+        <v>109.765</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3">
         <v>0.16</v>
@@ -1815,7 +1815,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="4">
-        <v>1.32528</v>
+        <v>1.3246899999999999</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>61</v>
       </c>
       <c r="J17" s="4">
-        <v>1.3258799999999999</v>
+        <v>1.3236399999999999</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>

--- a/archivos/archivo_tradeview_1.xlsx
+++ b/archivos/archivo_tradeview_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84f1aedc942e402d/Documentos/GitHub/LAB_02_KVGH/archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{34E69F85-45EF-4E0F-8B34-F309FB8F46A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D52BBEA-1405-4C56-8630-F0F776AEBFE1}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{34E69F85-45EF-4E0F-8B34-F309FB8F46A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14CB99DA-C7F4-461F-A338-8E6D01CDF55D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43A1268E-D998-4EED-B449-93D84121C54D}"/>
   </bookViews>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36EE18-E6C0-45E4-85A6-9D16FB732928}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>-38.65</v>
+        <v>-18.649999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">

--- a/archivos/archivo_tradeview_1.xlsx
+++ b/archivos/archivo_tradeview_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84f1aedc942e402d/Documentos/GitHub/LAB_02_KVGH/archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{34E69F85-45EF-4E0F-8B34-F309FB8F46A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14CB99DA-C7F4-461F-A338-8E6D01CDF55D}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{34E69F85-45EF-4E0F-8B34-F309FB8F46A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43EFD78C-61D2-42E5-BBB6-BC7A188CB598}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43A1268E-D998-4EED-B449-93D84121C54D}"/>
   </bookViews>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="3">
-        <v>21.63</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
